--- a/Documentations/Gen10Back-To-WorkApplicationUserStories_TaraEdit.xlsx
+++ b/Documentations/Gen10Back-To-WorkApplicationUserStories_TaraEdit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gen10\BackToWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gen10\BackToWork\Elephant\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA9E663-BF87-4CBB-842C-D31F117DE683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE55AE7-DA7A-4E02-8A71-EDF536633616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-150" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-170" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -756,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2020,15 +2022,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007791278076EB4545BDF45872316DB2C5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e4ed655ff144248bbd1394d78fe438c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="59ef0bf0-4fe2-4d8e-a190-89320be89d42" xmlns:ns4="6dd19bee-c7bb-439d-a638-72169e9cdcce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b446b6f1fc9227cf7e4a860a412e1e1" ns3:_="" ns4:_="">
     <xsd:import namespace="59ef0bf0-4fe2-4d8e-a190-89320be89d42"/>
@@ -2245,6 +2238,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F754E45B-D0C1-4B97-A90C-2B237F499EED}">
   <ds:schemaRefs>
@@ -2263,14 +2265,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DB346C-8162-423C-9F8C-161E8D2E533E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3306D24-2FE9-4302-A812-46CA7D1AC320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2287,4 +2281,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DB346C-8162-423C-9F8C-161E8D2E533E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>